--- a/01_Input/00_CO Validation/Suriname - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Suriname - Energy Projects.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/yacin_kouadio_undp_org/Documents/UNDP CHAD/PROGRAMME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{0918EAA0-890D-4237-BB83-2798FABCB72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B45EA0C8-2BC9-49E2-B725-CB83C7D64775}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{0918EAA0-890D-4237-BB83-2798FABCB72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90CF5ACA-479C-4137-B7DC-CAF15BFDCCD3}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="500" windowWidth="18160" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="5" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,6 +78,24 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
   </si>
   <si>
     <t>Off-grid Renewable Energy Solutions in Rural Suriname</t>
@@ -92,10 +114,18 @@
   </si>
   <si>
     <t xml:space="preserve">Two renewable hybrid mini grids with each a capacity of 250 kWp  
+Four hybrid mini grids capacity of 150 kWp, and four solar shops 
+The Implementation Component consist of 6 mini grids, 2 rural productivity zones and 4 solar shops providing electricity to an estimated 6000-8000 people (see breakdown below)
+The costs associated with the Implementation Component, are based on a study conducted by the Innovation Energie Développement, where the cost for solar hybrid mini grids (solar PV plus diesel back-up) are estimated in the range of US$5,000-10,000 per kWp installed capacity (IED, 2013). These estimated costs include equipment, connections, engineering costs and supervision (excluding costs for capacity-building). Installation costs of a solar PV system for one RPZ is estimated at around US$180,000 and the total cost of setting up one solar shop is around US$7,000 (NAMA Namibia, 2015).
+The RPZ will be supported by rural women organizations. In the NAMA area, rural women are the backbone of sustainable community livelihoods. They are the ones providing food for their families and their communities while also taking care of children and their houses. 
+</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two renewable hybrid mini grids with each a capacity of 250 kWp  
 Four hybrid mini grids capacity of 150 kWp, and four solar shops </t>
-  </si>
-  <si>
-    <t>Non-VF</t>
   </si>
   <si>
     <t xml:space="preserve">to the CO: are there any additional projected outputs? 1.1 total MWp seems low based on the budget
@@ -233,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +314,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Google Sans"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,8 +370,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -373,12 +415,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -439,6 +494,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,6 +517,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -470,6 +537,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4019550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9734FC-EA7F-464A-BCD4-57B5880EF280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22726650" y="4533900"/>
+          <a:ext cx="4019550" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -804,12 +920,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0989357B-5A6E-4E52-B383-40777C95EF4B}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6614500A-F8E1-4EF6-AFF1-B79716804662}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="35" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="87.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="5" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="5"/>
+    <col min="13" max="13" width="60.42578125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45.75">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="288" customHeight="1">
+      <c r="A2" s="9">
+        <v>122455</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="31">
+        <v>753663</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="24"/>
+    </row>
+    <row r="3" spans="1:19" ht="217.5" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="17"/>
+      <c r="G3" s="12"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{408FBD25-304F-49D6-A62A-491BA2701DEF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D99CAE09-878B-4C87-9C81-AA254882B2C9}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0989357B-5A6E-4E52-B383-40777C95EF4B}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="F2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -828,7 +1097,7 @@
     <col min="14" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19" ht="45.75">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -868,47 +1137,77 @@
       <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="93.75" customHeight="1">
+      <c r="N1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="93.75" customHeight="1">
       <c r="A2" s="9">
         <v>122455</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2" s="14">
         <v>11388000</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="18">
         <v>1.1000000000000001</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="217.5" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="24"/>
+    </row>
+    <row r="3" spans="1:19" ht="217.5" customHeight="1">
       <c r="B3" s="4"/>
       <c r="C3" s="17"/>
       <c r="G3" s="12"/>
       <c r="M3" s="21" t="s">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -931,7 +1230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -988,25 +1287,25 @@
         <v>122455</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2" s="14">
         <v>11388000</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G2" s="15">
         <v>0</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1034,7 +1333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1051,160 +1350,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="22" t="s">
-        <v>26</v>
+      <c r="A2" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="27"/>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="22"/>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="27"/>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="23" t="s">
-        <v>31</v>
+      <c r="A5" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="28"/>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="28"/>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="24" t="s">
-        <v>42</v>
+      <c r="A10" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="29"/>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="25" t="s">
-        <v>47</v>
+      <c r="A12" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="30"/>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1219,53 +1518,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Bryan Drakenstein</DisplayName>
-        <AccountId>2141</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carlos Salgado</DisplayName>
-        <AccountId>1344</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -1514,8 +1766,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Bryan Drakenstein</DisplayName>
+        <AccountId>2141</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carlos Salgado</DisplayName>
+        <AccountId>1344</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD5E2905-871E-489F-AB9C-0B0A921B7736}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1523,5 +1822,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD5E2905-871E-489F-AB9C-0B0A921B7736}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
--- a/01_Input/00_CO Validation/Suriname - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Suriname - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/yacin_kouadio_undp_org/Documents/UNDP CHAD/PROGRAMME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{0918EAA0-890D-4237-BB83-2798FABCB72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90CF5ACA-479C-4137-B7DC-CAF15BFDCCD3}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{0918EAA0-890D-4237-BB83-2798FABCB72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B2CBA9C-082C-4397-B462-09D66C969473}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="500" windowWidth="18160" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,10 +74,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -96,6 +93,15 @@
   </si>
   <si>
     <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>Off-grid Renewable Energy Solutions in Rural Suriname</t>
@@ -124,6 +130,18 @@
     <t>Non-VF</t>
   </si>
   <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t xml:space="preserve">Two renewable hybrid mini grids with each a capacity of 250 kWp  
 Four hybrid mini grids capacity of 150 kWp, and four solar shops </t>
   </si>
@@ -151,52 +169,64 @@
 </t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -205,7 +235,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -220,13 +253,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -235,19 +265,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -263,12 +293,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,49 +356,26 @@
       <name val="Google Sans"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -377,27 +390,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,22 +426,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -453,16 +479,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -474,50 +500,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -537,55 +604,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>4019550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9734FC-EA7F-464A-BCD4-57B5880EF280}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22726650" y="4533900"/>
-          <a:ext cx="4019550" cy="2838450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -921,150 +939,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6614500A-F8E1-4EF6-AFF1-B79716804662}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="I2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="87.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="5" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="5"/>
-    <col min="13" max="13" width="60.42578125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="87.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="288" customHeight="1">
-      <c r="A2" s="9">
+      <c r="T1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="288" customHeight="1">
+      <c r="A2" s="24">
         <v>122455</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="31">
+      <c r="B2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="27">
         <v>753663</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="18">
+      <c r="E2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="24"/>
-    </row>
-    <row r="3" spans="1:19" ht="217.5" customHeight="1">
-      <c r="B3" s="4"/>
-      <c r="C3" s="17"/>
-      <c r="G3" s="12"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="26"/>
+      <c r="I2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="32"/>
+      <c r="N2" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="32"/>
+      <c r="U2" s="24"/>
     </row>
   </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{59C072BF-4BCF-443A-AF3E-1D053D80E890}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{004A1A88-FD61-4640-9BA5-A4C6C2AC74A2}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{2F79BE62-CD40-40C7-803B-31062EFCA58A}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{8B5ECAC6-F5F9-4741-A7F8-85E8A2B161FE}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{BD43DFBD-C900-4B5E-9037-8D704F82B8A2}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{FEE63CAF-4A7C-46EE-8A11-EDBC10CCF20D}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{47B2D239-10B2-4B55-88EA-28A9CD0A5590}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{345DCA8B-0CF4-4A0A-83D5-2951EA86467C}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{2AD35A99-CEA2-4AF3-92A9-079D0643EAB7}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{408FBD25-304F-49D6-A62A-491BA2701DEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E45F3145-7294-4BD3-96E3-2C23C018E9FF}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D99CAE09-878B-4C87-9C81-AA254882B2C9}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E7</xm:sqref>
+          <xm:sqref>E3:E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1083,131 +1147,131 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="5" customWidth="1"/>
-    <col min="11" max="12" width="8.85546875" style="5"/>
-    <col min="13" max="13" width="60.42578125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" style="2"/>
+    <col min="13" max="13" width="60.42578125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="19" t="s">
+      <c r="L1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="22" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:19" ht="93.75" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>122455</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11">
         <v>11388000</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="18">
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="20" t="s">
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="24"/>
+      <c r="M2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="217.5" customHeight="1">
-      <c r="B3" s="4"/>
-      <c r="C3" s="17"/>
-      <c r="G3" s="12"/>
-      <c r="M3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="26"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14"/>
+      <c r="G3" s="9"/>
+      <c r="M3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1220,7 +1284,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C8F0855-78B7-4565-A7DD-DDC281FEC9CF}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E7</xm:sqref>
         </x14:dataValidation>
@@ -1241,77 +1305,77 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.95">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="93.75" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>122455</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11">
         <v>11388000</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="12">
         <v>0</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>30</v>
+      <c r="H2" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="B3" s="4"/>
-      <c r="C3" s="17"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14"/>
+      <c r="G3" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1323,7 +1387,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E7</xm:sqref>
         </x14:dataValidation>
@@ -1335,184 +1399,195 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="96" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B1" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75">
+      <c r="A2" s="41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="27"/>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="27"/>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B2" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="28" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B4" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="28"/>
-      <c r="B6" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B5" s="34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="28"/>
-      <c r="B7" t="s">
+    <row r="6" spans="1:2" ht="45.75">
+      <c r="A6" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B6" s="34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="28"/>
-      <c r="B8" t="s">
+    <row r="7" spans="1:2" ht="30.75">
+      <c r="A7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B7" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="28"/>
-      <c r="B9" t="s">
+    <row r="8" spans="1:2" ht="30.75">
+      <c r="A8" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B8" s="34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="29" t="s">
+    <row r="9" spans="1:2" ht="30.75">
+      <c r="A9" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B9" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="29"/>
-      <c r="B11" t="s">
+      <c r="B10" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="41" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="30" t="s">
+      <c r="B11" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="30.75">
+      <c r="A12" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="30"/>
-      <c r="B13" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="30"/>
-      <c r="B14" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="41" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="41" t="s">
         <v>65</v>
       </c>
+      <c r="B17" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45.75">
+      <c r="A19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1767,6 +1842,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -1804,23 +1888,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD5E2905-871E-489F-AB9C-0B0A921B7736}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
--- a/01_Input/00_CO Validation/Suriname - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Suriname - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/yacin_kouadio_undp_org/Documents/UNDP CHAD/PROGRAMME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{0918EAA0-890D-4237-BB83-2798FABCB72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B2CBA9C-082C-4397-B462-09D66C969473}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{0918EAA0-890D-4237-BB83-2798FABCB72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BBFC2D9-58EE-49B2-81CC-7238839AD09B}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="500" windowWidth="18160" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,8 +942,8 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="I2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1593,8 +1593,55 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Bryan Drakenstein</DisplayName>
+        <AccountId>2141</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carlos Salgado</DisplayName>
+        <AccountId>1344</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1619,6 +1666,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1698,6 +1746,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1841,55 +1894,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Bryan Drakenstein</DisplayName>
-        <AccountId>2141</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carlos Salgado</DisplayName>
-        <AccountId>1344</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD5E2905-871E-489F-AB9C-0B0A921B7736}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1897,5 +1903,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{213CAC21-7427-486A-9ADB-79C7E7CE745D}"/>
 </file>